--- a/assets/test.xlsx
+++ b/assets/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xueyunchen/my_project/pptr-jest/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72759251-4A7F-8A43-90DB-E258F8EDEBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459EDA98-2B97-BF45-AC15-AF986869B08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="960" windowWidth="27840" windowHeight="15880" xr2:uid="{0DCA4CED-265C-974D-8DF4-715A1384069B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,10 @@
   </si>
   <si>
     <t>账号或密码错误</t>
+  </si>
+  <si>
+    <t>类型（0正确，1错误）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -449,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCB5677-26E3-8B45-82FB-48F7B7476E1E}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -462,7 +466,7 @@
     <col min="3" max="3" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +476,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -483,8 +490,11 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -494,8 +504,11 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -505,8 +518,11 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -516,8 +532,11 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -527,8 +546,11 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -538,8 +560,11 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -549,8 +574,11 @@
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -560,8 +588,11 @@
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -571,8 +602,11 @@
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -581,6 +615,9 @@
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
